--- a/img/Tableau de Synthèse.xlsx
+++ b/img/Tableau de Synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44507E77-4BD5-4D33-93FD-2C7FD8043A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B2203E-B732-45E1-9BAD-617946C9EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -749,38 +749,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,6 +784,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,56 +983,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21465</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>10732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Connecteur droit 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFF96D6-4A56-41A1-81E6-D69586612A56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10753859" y="9090338"/>
-          <a:ext cx="1275569" cy="515155"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1057,56 +1007,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10732394" y="8585915"/>
-          <a:ext cx="1297034" cy="536713"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32290</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Connecteur droit 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C70F0E5-9269-45A5-A82A-8ABB7F0EB1D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10732394" y="9090338"/>
           <a:ext cx="1297034" cy="536713"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2408,6 +2308,106 @@
         <a:xfrm flipV="1">
           <a:off x="12009549" y="16377634"/>
           <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35816E7-8A45-4694-90F4-BAF208C255FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8184776" y="9081247"/>
+          <a:ext cx="1301832" cy="534313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEA0463-EB8E-4221-B959-3A6791451AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8184776" y="9081247"/>
+          <a:ext cx="1301832" cy="502023"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2725,11 +2725,11 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.21875" style="1" customWidth="1"/>
@@ -2738,57 +2738,57 @@
     <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2799,25 +2799,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2839,9 +2839,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="42"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -2896,17 +2896,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2943,7 +2943,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="44.25" customHeight="1">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -3135,7 +3135,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
@@ -3180,7 +3180,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -3225,7 +3225,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
@@ -3270,7 +3270,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
@@ -3315,7 +3315,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -3360,7 +3360,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -3405,17 +3405,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3452,7 +3452,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
@@ -3795,17 +3795,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -3842,7 +3842,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
@@ -3887,7 +3887,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
@@ -3932,7 +3932,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
@@ -3977,7 +3977,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -4022,7 +4022,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -4067,7 +4067,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -4112,7 +4112,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -4157,7 +4157,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -4202,54 +4202,59 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -4257,11 +4262,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4277,6 +4277,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -4330,15 +4339,6 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4759,6 +4759,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
@@ -4771,14 +4779,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/img/Tableau de Synthèse.xlsx
+++ b/img/Tableau de Synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B2203E-B732-45E1-9BAD-617946C9EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A14388-D004-499C-A636-3CDC132C2B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,14 +749,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -784,30 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1134,56 +1134,6 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32290</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connecteur droit 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79BF2C4-771A-4D9E-8354-2A90D01B271B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13286704" y="9090338"/>
-          <a:ext cx="1297034" cy="536713"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1282,56 +1232,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Connecteur droit 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5CCBE1-8220-4E9C-B2FB-CC206F68FFAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13286704" y="9090338"/>
-          <a:ext cx="1297034" cy="504423"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -2408,6 +2308,206 @@
         <a:xfrm flipV="1">
           <a:off x="8184776" y="9081247"/>
           <a:ext cx="1301832" cy="502023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E4F23E-E3B6-4BC7-A243-332046253741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9466729" y="8579224"/>
+          <a:ext cx="1301832" cy="534313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1354111D-37F4-4773-AFBC-E07A951F0604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9466729" y="8579224"/>
+          <a:ext cx="1301832" cy="502023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>502023</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D284F189-FA31-4CCF-9CB7-60648DC51403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8184776" y="8023412"/>
+          <a:ext cx="1301832" cy="502023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>534313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C889A7A9-416D-4D23-BDA0-4049EB422262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8184776" y="8023412"/>
+          <a:ext cx="1301832" cy="534313"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2725,8 +2825,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2739,56 +2839,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2803,21 +2903,21 @@
       <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2840,8 +2940,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -2897,16 +2997,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -3406,16 +3506,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3796,16 +3896,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -4250,11 +4350,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -4262,6 +4357,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4277,15 +4377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -4339,6 +4430,15 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4759,14 +4859,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
@@ -4779,6 +4871,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/img/Tableau de Synthèse.xlsx
+++ b/img/Tableau de Synthèse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A14388-D004-499C-A636-3CDC132C2B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B0510-5974-439D-B801-ED712286F2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,38 +749,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,6 +784,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2825,8 +2825,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2839,56 +2839,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2903,21 +2903,21 @@
       <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2940,8 +2940,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -2997,16 +2997,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -3506,16 +3506,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3896,16 +3896,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -4350,6 +4350,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -4357,11 +4362,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4377,6 +4377,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -4430,15 +4439,6 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4859,6 +4859,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
@@ -4871,14 +4879,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/img/Tableau de Synthèse.xlsx
+++ b/img/Tableau de Synthèse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B0510-5974-439D-B801-ED712286F2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72775E79-3CB8-4EC1-8914-C398ADB3922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -144,27 +141,6 @@
     <t>Centre de formation : IPSSI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SISR</t>
-    </r>
-  </si>
-  <si>
     <t>Création et configuration d'une GPO pour une bibliothèque via Windows Server 2019</t>
   </si>
   <si>
@@ -206,6 +182,29 @@
   <si>
     <t>Du 02/23 au 04/23</t>
   </si>
+  <si>
+    <t>N° candidat : 02341326486</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SISR</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,15 +276,22 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF00B050"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,11 +329,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
@@ -336,9 +344,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
@@ -347,11 +359,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
@@ -366,10 +380,10 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -381,10 +395,10 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -396,73 +410,13 @@
       <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
     </border>
     <border diagonalDown="1">
       <left style="medium">
@@ -540,31 +494,7 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
@@ -634,6 +564,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -641,9 +586,38 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -654,20 +628,42 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -676,9 +672,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,29 +691,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,68 +709,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -794,20 +781,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2825,8 +2818,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2839,126 +2832,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>27</v>
+      <c r="A3" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>3</v>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
+        <v>42</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>28</v>
+      <c r="A4" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>32</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>5</v>
+      <c r="B5" s="42" t="s">
+        <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="41" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2997,16 +2990,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>20</v>
+      <c r="A8" s="25" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -3044,18 +3037,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -3093,18 +3086,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -3142,18 +3135,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
+      <c r="A11" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>43</v>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -3191,14 +3184,14 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3236,14 +3229,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -3281,14 +3274,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -3326,14 +3319,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -3371,14 +3364,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -3416,14 +3409,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -3461,14 +3454,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -3506,16 +3499,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>21</v>
+      <c r="A19" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3553,18 +3546,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>24</v>
+      <c r="A20" s="7" t="s">
+        <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>38</v>
+      <c r="B20" s="6" t="s">
+        <v>36</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -3602,18 +3595,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
+      <c r="A21" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="17">
         <v>45061</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -3651,18 +3644,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>31</v>
+      <c r="A22" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>39</v>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -3700,18 +3693,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>26</v>
+      <c r="A23" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -3749,18 +3742,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>32</v>
+      <c r="A24" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>39</v>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -3798,18 +3791,18 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>30</v>
+      <c r="A25" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>39</v>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -3847,18 +3840,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>33</v>
+      <c r="A26" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -3896,16 +3889,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>22</v>
+      <c r="A27" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -3943,14 +3936,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -3988,14 +3981,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -4033,14 +4026,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -4078,14 +4071,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -4123,14 +4116,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -4168,14 +4161,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -4213,14 +4206,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -4350,11 +4343,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -4362,6 +4350,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4377,15 +4370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -4439,6 +4423,15 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4859,14 +4852,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
@@ -4879,6 +4864,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
